--- a/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,96%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>18,42; 26,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>20,24; 28,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>14,61; 22,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>12,65; 25,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>24,33; 32,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>24,15; 32,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>17,46; 25,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>12,23; 23,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>22,29; 28,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>23,44; 29,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>16,98; 22,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>14,01; 22,8</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>20,69; 27,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>24,5; 31,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>18,51; 25,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>23,98; 35,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>35,35; 43,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>31,1; 38,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>19,78; 26,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>23,28; 32,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>28,41; 33,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>28,95; 34,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>20,1; 25,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>25,11; 32,5</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,66%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>30,41; 38,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>32,62; 39,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>20,6; 26,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>29,51; 37,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>44,6; 52,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>40,58; 48,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>30,72; 37,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>32,71; 39,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>38,79; 44,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>37,48; 43,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>26,72; 32,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>32,18; 37,58</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>38,13; 46,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>37,11; 45,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>34,35; 42,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>44,67; 62,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>55,86; 64,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>46,17; 54,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>39,64; 47,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>48,81; 55,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>48,21; 54,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>42,74; 48,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>38,49; 43,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>48,15; 56,7</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,36%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,09%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,67%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>61,19; 70,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>54,12; 63,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>51,24; 61,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>53,87; 61,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>65,68; 74,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>66,35; 75,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>58,02; 67,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>60,44; 66,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>64,97; 71,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>61,81; 68,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>56,36; 62,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>58,14; 63,31</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,99%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,62%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>79,19; 85,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>77,63; 84,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>70,48; 77,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>67,57; 73,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>89,41; 93,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>85,53; 90,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>81,26; 86,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>83,57; 90,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>85,86; 89,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>83,05; 87,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>77,77; 82,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>77,58; 84,32</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,61%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>40,72; 44,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>42,17; 45,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,42; 40,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,78; 49,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>55,26; 58,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>52,73; 55,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>46,06; 49,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>51,92; 58,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,72; 51,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,15; 50,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>42,2; 44,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>49,12; 53,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 25,97</t>
+          <t>13,02; 27,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,23; 23,83</t>
+          <t>12,73; 25,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,01; 22,8</t>
+          <t>14,38; 24,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>27,91%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,98; 35,58</t>
+          <t>24,81; 36,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 32,88</t>
+          <t>16,65; 31,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,11; 32,5</t>
+          <t>21,4; 32,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>35,36%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,51; 37,41</t>
+          <t>30,06; 38,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,71; 39,55</t>
+          <t>33,57; 40,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,18; 37,58</t>
+          <t>32,85; 38,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>61,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>56,92%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,67; 62,31</t>
+          <t>45,62; 82,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,81; 55,55</t>
+          <t>42,59; 54,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,15; 56,7</t>
+          <t>48,02; 73,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>63,47%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>61,3%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,87; 61,83</t>
+          <t>54,72; 62,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,44; 66,34</t>
+          <t>60,87; 66,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>58,14; 63,31</t>
+          <t>58,72; 63,86</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>77,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>77,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>82,68%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>78,68%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>79,99%</t>
+          <t>72,98%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>76,36%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>79,19; 85,87</t>
+          <t>71,89; 81,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,63; 84,36</t>
+          <t>70,79; 80,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,48; 77,54</t>
+          <t>63,22; 73,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,57; 73,3</t>
+          <t>59,04; 67,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,41; 93,49</t>
+          <t>84,23; 90,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>85,53; 90,41</t>
+          <t>76,59; 85,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>81,26; 86,96</t>
+          <t>72,39; 81,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,57; 90,75</t>
+          <t>75,64; 94,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>85,86; 89,56</t>
+          <t>79,52; 85,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>83,05; 87,05</t>
+          <t>75,21; 82,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>77,77; 82,06</t>
+          <t>69,62; 76,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>77,58; 84,32</t>
+          <t>68,94; 87,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,06%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>87,32%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>85,39; 94,31</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>82,92; 91,58</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>77,77; 86,36</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>76,94; 84,13</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93,41; 97,93</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>91,66; 96,65</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>87,44; 93,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>89,66; 93,49</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>91,62; 95,76</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>89,03; 93,75</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>84,76; 89,97</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>85,27; 89,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42,57%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>43,99%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>38,95%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>49,8%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>57,05%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>54,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>47,83%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>54,72%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>49,93%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49,24%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>40,72; 44,43</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>42,17; 45,75</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>37,42; 40,8</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>44,78; 49,73</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>45,31; 60,17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>55,26; 58,74</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>52,73; 55,95</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>46,06; 49,44</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>51,92; 58,75</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>50,82; 62,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>48,72; 51,26</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>48,15; 50,48</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>42,2; 44,66</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>49,12; 53,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>49,18; 58,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,42; 26,27</t>
+          <t>18,42; 25,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,24; 28,46</t>
+          <t>20,13; 28,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 22,36</t>
+          <t>14,49; 22,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 27,26</t>
+          <t>13,5; 27,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,33; 32,15</t>
+          <t>24,15; 32,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,15; 32,71</t>
+          <t>24,05; 32,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 25,4</t>
+          <t>18,09; 26,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 25,57</t>
+          <t>12,75; 25,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,29; 28,26</t>
+          <t>22,5; 28,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,44; 29,13</t>
+          <t>23,48; 29,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 22,92</t>
+          <t>17,22; 22,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 24,03</t>
+          <t>14,46; 24,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 27,13</t>
+          <t>20,37; 26,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,52</t>
+          <t>24,32; 31,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,51; 25,47</t>
+          <t>18,62; 25,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,81; 36,87</t>
+          <t>24,92; 36,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,35; 43,57</t>
+          <t>35,53; 43,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 38,73</t>
+          <t>31,13; 39,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,78; 26,76</t>
+          <t>19,82; 26,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,65; 31,94</t>
+          <t>15,18; 31,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,41; 33,57</t>
+          <t>28,45; 33,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,95; 34,15</t>
+          <t>28,81; 34,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,19</t>
+          <t>20,19; 25,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,4; 32,44</t>
+          <t>21,15; 32,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 38,06</t>
+          <t>30,44; 37,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,62; 39,77</t>
+          <t>31,87; 39,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,6; 26,94</t>
+          <t>20,99; 27,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,06; 38,05</t>
+          <t>29,81; 38,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,6; 52,25</t>
+          <t>44,59; 52,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,58; 48,26</t>
+          <t>40,39; 48,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,72; 37,82</t>
+          <t>30,74; 37,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,57; 40,36</t>
+          <t>33,31; 40,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,79; 44,19</t>
+          <t>38,53; 44,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,48; 43,08</t>
+          <t>37,61; 43,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,72; 32,23</t>
+          <t>26,8; 31,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,85; 38,33</t>
+          <t>32,77; 38,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,13; 46,8</t>
+          <t>37,71; 46,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,11; 45,46</t>
+          <t>37,42; 45,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,35; 42,52</t>
+          <t>34,11; 42,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,62; 82,72</t>
+          <t>45,31; 83,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,86; 64,31</t>
+          <t>55,8; 64,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,17; 54,88</t>
+          <t>45,94; 54,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,64; 47,4</t>
+          <t>39,77; 47,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,59; 54,82</t>
+          <t>43,7; 54,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,21; 54,56</t>
+          <t>48,06; 54,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,74; 48,98</t>
+          <t>42,78; 48,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,49; 43,86</t>
+          <t>38,35; 43,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,02; 73,33</t>
+          <t>47,74; 73,02</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,19; 70,73</t>
+          <t>61,36; 70,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,12; 63,57</t>
+          <t>54,08; 64,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,24; 61,0</t>
+          <t>51,44; 61,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>54,72; 62,78</t>
+          <t>54,91; 62,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,68; 74,43</t>
+          <t>66,05; 74,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,35; 75,26</t>
+          <t>65,75; 74,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,02; 67,23</t>
+          <t>58,16; 67,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,87; 66,69</t>
+          <t>60,86; 67,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64,97; 71,47</t>
+          <t>64,72; 71,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61,81; 68,63</t>
+          <t>61,31; 68,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,36; 62,85</t>
+          <t>56,1; 62,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>58,72; 63,86</t>
+          <t>58,92; 64,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,89; 81,72</t>
+          <t>71,82; 81,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>70,79; 80,62</t>
+          <t>70,95; 81,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,22; 73,29</t>
+          <t>63,41; 73,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59,04; 67,06</t>
+          <t>58,95; 67,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,23; 90,91</t>
+          <t>83,97; 90,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,59; 85,04</t>
+          <t>76,67; 85,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,39; 81,55</t>
+          <t>72,24; 81,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,64; 94,65</t>
+          <t>75,08; 93,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,52; 85,47</t>
+          <t>79,72; 85,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>75,21; 82,03</t>
+          <t>74,86; 81,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>69,62; 76,52</t>
+          <t>69,45; 76,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>68,94; 87,99</t>
+          <t>69,45; 87,15</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,39; 94,31</t>
+          <t>86,13; 94,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,92; 91,58</t>
+          <t>83,11; 91,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,77; 86,36</t>
+          <t>77,46; 85,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76,94; 84,13</t>
+          <t>76,61; 84,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,41; 97,93</t>
+          <t>93,11; 97,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,66; 96,65</t>
+          <t>91,44; 96,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,44; 93,89</t>
+          <t>87,52; 93,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>89,66; 93,49</t>
+          <t>89,73; 93,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,62; 95,76</t>
+          <t>91,43; 95,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>89,03; 93,75</t>
+          <t>89,11; 93,7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>84,76; 89,97</t>
+          <t>84,61; 89,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,27; 89,14</t>
+          <t>85,36; 89,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,72; 44,43</t>
+          <t>40,98; 44,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,17; 45,75</t>
+          <t>42,18; 45,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,42; 40,8</t>
+          <t>37,42; 40,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,31; 60,17</t>
+          <t>45,22; 61,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>55,26; 58,74</t>
+          <t>55,36; 58,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,73; 55,95</t>
+          <t>52,61; 56,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,06; 49,44</t>
+          <t>45,97; 49,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>50,82; 62,72</t>
+          <t>50,93; 63,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,72; 51,26</t>
+          <t>48,6; 51,16</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>48,15; 50,48</t>
+          <t>48,01; 50,45</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>42,2; 44,66</t>
+          <t>42,23; 44,64</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>49,18; 58,74</t>
+          <t>49,01; 58,43</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>109431</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>110419</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>76407</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>76970</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>131705</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>121497</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>85454</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>56959</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>241136</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>231916</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>161861</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>133929</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91008; 127915</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>91419; 129735</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>60770; 96128</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>53991; 108755</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>112880; 151403</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>103451; 140644</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>71583; 104620</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39716; 78789</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>216313; 270587</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>207641; 257051</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>140368; 185783</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>102888; 171172</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>175092</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>191997</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>128665</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128996</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>246631</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>214032</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>131008</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>131816</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>421722</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>406029</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>259673</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>260812</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>149794; 198180</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>167111; 216336</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>109942; 149148</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>105533; 155689</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>222243; 270346</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>189943; 239787</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>111686; 151148</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>77541; 162305</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>387240; 457872</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>373800; 442490</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>232960; 294712</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>197668; 300993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>217674</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>243766</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>160940</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>181722</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>334197</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>314960</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>226584</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>199190</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>551872</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>558726</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>387524</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>380913</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>194395; 241717</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>217299; 268944</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>140417; 185994</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>159607; 206676</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>307577; 359807</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>287134; 342443</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>203313; 250847</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>180475; 219479</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>511825; 589669</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>523805; 603625</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>356612; 418472</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>352947; 411689</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>220951</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>253169</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>247394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>545481</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>310676</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>310275</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>284145</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>362355</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>531626</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>563445</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>531539</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>907837</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>195770; 243158</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>230001; 279067</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>220343; 272810</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>401311; 737282</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>287727; 333606</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>283072; 336471</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>258166; 308973</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>310003; 389298</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>497300; 565080</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>526603; 600686</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>496688; 568980</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>761394; 1164682</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>256031</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>254086</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>269437</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>326301</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>284516</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>316933</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>311962</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>348357</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>540547</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>571019</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>581399</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>674658</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>237277; 274295</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>232247; 276063</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>245864; 292461</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>304733; 347126</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>266829; 302710</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>294446; 334479</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>288959; 334322</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>332046; 366323</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>511728; 564882</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>537831; 597510</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>546885; 612163</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>648415; 705940</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>225336</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>235553</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>228237</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>229411</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>300124</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>286724</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>291477</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>511562</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>525460</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>522278</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>740974</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>210136; 238977</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>219790; 251379</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>212003; 245546</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>214430; 244083</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>287974; 310510</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>271407; 301392</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>272893; 307998</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>455492; 566574</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>506641; 545005</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>496940; 542230</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>494526; 542136</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>673993; 845734</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1158</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>190427</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>218442</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>210935</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>226029</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>320097</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>367331</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>364632</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>383552</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>510525</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>585773</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>575567</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>609581</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>180769; 197639</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>207648; 229127</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>199078; 220548</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>214828; 236328</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>310899; 326742</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>355666; 374826</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>350242; 375198</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>374806; 390872</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>497192; 521328</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>569236; 598599</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>556053; 590549</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>595903; 622376</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>3258</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3167</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2789</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4907</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1394942</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1507432</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1322013</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1714911</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1927947</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1931754</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1695262</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1993792</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3322889</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3439186</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3017275</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3708703</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1342788; 1458215</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1445255; 1572564</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1270293; 1381491</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1557120; 2116180</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1870650; 1988583</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1871924; 2000271</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1629512; 1758713</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1855580; 2301535</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3234788; 3405160</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3353430; 3524304</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2930007; 3097352</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3473685; 4140835</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>